--- a/data/trans_orig/P35-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P35-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>80548</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>64494</v>
+        <v>65976</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>97866</v>
+        <v>97461</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1770692061762666</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1417777626103349</v>
+        <v>0.1450350187065029</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2151412192002015</v>
+        <v>0.2142489353136316</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -765,19 +765,19 @@
         <v>48679</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36868</v>
+        <v>37446</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63063</v>
+        <v>62661</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1654561588398413</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1253109754823457</v>
+        <v>0.1272757491935109</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2143473353911819</v>
+        <v>0.2129793251120441</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>127</v>
@@ -786,19 +786,19 @@
         <v>129227</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>109137</v>
+        <v>111344</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>151314</v>
+        <v>152970</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1725081955968415</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1456904038140406</v>
+        <v>0.148636512831499</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2019937929568815</v>
+        <v>0.2042041836945517</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>374346</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>357028</v>
+        <v>357433</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>390400</v>
+        <v>388918</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8229307938237334</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7848587807997985</v>
+        <v>0.7857510646863685</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8582222373896652</v>
+        <v>0.8549649812934971</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>236</v>
@@ -836,19 +836,19 @@
         <v>245531</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>231147</v>
+        <v>231549</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>257342</v>
+        <v>256764</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8345438411601588</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7856526646088182</v>
+        <v>0.7870206748879559</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8746890245176543</v>
+        <v>0.8727242508064891</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>595</v>
@@ -857,19 +857,19 @@
         <v>619877</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>597790</v>
+        <v>596134</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>639967</v>
+        <v>637760</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8274918044031585</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7980062070431186</v>
+        <v>0.7957958163054478</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8543095961859595</v>
+        <v>0.851363487168501</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>67925</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53513</v>
+        <v>54075</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82654</v>
+        <v>85101</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1952769126831791</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1538434237917507</v>
+        <v>0.1554591277897743</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.23762109051913</v>
+        <v>0.2446567036490312</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -982,19 +982,19 @@
         <v>51050</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39273</v>
+        <v>39002</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66371</v>
+        <v>64704</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1486203684841608</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1143353699727824</v>
+        <v>0.1135443095153115</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.193224516102494</v>
+        <v>0.1883713977788589</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>117</v>
@@ -1003,19 +1003,19 @@
         <v>118975</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>100713</v>
+        <v>98333</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>141525</v>
+        <v>139407</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.172095311897325</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1456787781590746</v>
+        <v>0.1422374675510512</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2047133889707794</v>
+        <v>0.2016491879444991</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>279915</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>265186</v>
+        <v>262739</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>294327</v>
+        <v>293765</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8047230873168209</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7623789094808699</v>
+        <v>0.7553432963509706</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8461565762082492</v>
+        <v>0.8445408722102263</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>286</v>
@@ -1053,19 +1053,19 @@
         <v>292443</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>277122</v>
+        <v>278789</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>304220</v>
+        <v>304491</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8513796315158393</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8067754838975061</v>
+        <v>0.8116286022211413</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8856646300272177</v>
+        <v>0.8864556904846884</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>550</v>
@@ -1074,19 +1074,19 @@
         <v>572358</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>549808</v>
+        <v>551926</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>590620</v>
+        <v>593000</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.827904688102675</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7952866110292205</v>
+        <v>0.7983508120555005</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8543212218409254</v>
+        <v>0.8577625324489487</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>106559</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>87355</v>
+        <v>89141</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>126279</v>
+        <v>126362</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2065398348945478</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.169316638775129</v>
+        <v>0.1727786235635849</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2447604403759495</v>
+        <v>0.244922607044771</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -1199,19 +1199,19 @@
         <v>33673</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23429</v>
+        <v>24086</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44176</v>
+        <v>45934</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2081302566825754</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1448116177386651</v>
+        <v>0.148871088601484</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2730486548473238</v>
+        <v>0.2839106505251017</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>138</v>
@@ -1220,19 +1220,19 @@
         <v>140233</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>121877</v>
+        <v>118784</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>161520</v>
+        <v>162617</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.206919511628007</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1798352819652053</v>
+        <v>0.1752712824989595</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2383299620078759</v>
+        <v>0.2399484306639232</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>409368</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>389648</v>
+        <v>389565</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>428572</v>
+        <v>426786</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7934601651054523</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7552395596240504</v>
+        <v>0.7550773929552287</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8306833612248709</v>
+        <v>0.8272213764364151</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>126</v>
@@ -1270,19 +1270,19 @@
         <v>128116</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>117613</v>
+        <v>115855</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>138360</v>
+        <v>137703</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7918697433174245</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.726951345152675</v>
+        <v>0.7160893494748983</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8551883822613344</v>
+        <v>0.8511289113985161</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>526</v>
@@ -1291,19 +1291,19 @@
         <v>537484</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>516197</v>
+        <v>515100</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>555840</v>
+        <v>558933</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.793080488371993</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7616700379921242</v>
+        <v>0.7600515693360763</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8201647180347946</v>
+        <v>0.8247287175010405</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>237138</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>209834</v>
+        <v>211495</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>264999</v>
+        <v>268073</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2004965507389901</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1774113784680752</v>
+        <v>0.1788158970836873</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2240524936627073</v>
+        <v>0.226651164174788</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>135</v>
@@ -1416,19 +1416,19 @@
         <v>136259</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>115019</v>
+        <v>117500</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>158217</v>
+        <v>157173</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2005715311096497</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.16930646231146</v>
+        <v>0.1729575514097747</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2328922642747848</v>
+        <v>0.2313560879662622</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>381</v>
@@ -1437,19 +1437,19 @@
         <v>373397</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>340118</v>
+        <v>341653</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>411382</v>
+        <v>415027</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2005239058882134</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1826518397854532</v>
+        <v>0.183476586812155</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2209225605411761</v>
+        <v>0.2228799764041286</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>945616</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>917755</v>
+        <v>914681</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>972920</v>
+        <v>971259</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7995034492610099</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7759475063372928</v>
+        <v>0.773348835825212</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8225886215319248</v>
+        <v>0.8211841029163127</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>525</v>
@@ -1487,19 +1487,19 @@
         <v>543096</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>521138</v>
+        <v>522182</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>564336</v>
+        <v>561855</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7994284688903504</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7671077357252152</v>
+        <v>0.7686439120337377</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.83069353768854</v>
+        <v>0.8270424485902252</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1449</v>
@@ -1508,19 +1508,19 @@
         <v>1488712</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1450727</v>
+        <v>1447082</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1521991</v>
+        <v>1520456</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7994760941117866</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7790774394588239</v>
+        <v>0.7771200235958712</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8173481602145467</v>
+        <v>0.8165234131878449</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>37999</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28029</v>
+        <v>28015</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51103</v>
+        <v>50540</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.114309788300322</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08431805263490159</v>
+        <v>0.08427540976155518</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.153731919526466</v>
+        <v>0.1520382536494206</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>91</v>
@@ -1633,19 +1633,19 @@
         <v>94441</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>76999</v>
+        <v>78684</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>112079</v>
+        <v>112972</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1755062473677378</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1430918219101843</v>
+        <v>0.1462233588700227</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2082842903911867</v>
+        <v>0.2099439675114429</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>131</v>
@@ -1654,19 +1654,19 @@
         <v>132440</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>114629</v>
+        <v>111917</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>154346</v>
+        <v>157328</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1521377894568462</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1316783339158216</v>
+        <v>0.1285623609307215</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1773027291319632</v>
+        <v>0.1807271622980835</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>294419</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>281315</v>
+        <v>281878</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>304389</v>
+        <v>304403</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.885690211699678</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8462680804735344</v>
+        <v>0.8479617463505796</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9156819473650987</v>
+        <v>0.9157245902384449</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>420</v>
@@ -1704,19 +1704,19 @@
         <v>443666</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>426028</v>
+        <v>425135</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>461108</v>
+        <v>459423</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8244937526322622</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7917157096088134</v>
+        <v>0.7900560324885573</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8569081780898159</v>
+        <v>0.853776641129978</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>702</v>
@@ -1725,19 +1725,19 @@
         <v>738085</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>716179</v>
+        <v>713197</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>755896</v>
+        <v>758608</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8478622105431538</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8226972708680368</v>
+        <v>0.8192728377019165</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8683216660841779</v>
+        <v>0.8714376390692784</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>17152</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9750</v>
+        <v>10561</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26365</v>
+        <v>26346</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05975580413341105</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03396663493378896</v>
+        <v>0.03679346968300286</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09185447132275831</v>
+        <v>0.09178810969420159</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>320</v>
@@ -1850,19 +1850,19 @@
         <v>327504</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>297886</v>
+        <v>297227</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>359851</v>
+        <v>357205</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.275211644280447</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2503229219804513</v>
+        <v>0.2497689134245912</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3023942960570941</v>
+        <v>0.3001708801030761</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>337</v>
@@ -1871,19 +1871,19 @@
         <v>344656</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>311097</v>
+        <v>311047</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>378532</v>
+        <v>375503</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2333418265997723</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.210621567154723</v>
+        <v>0.2105874624210411</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2562771377489876</v>
+        <v>0.2542260696291264</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>269883</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>260670</v>
+        <v>260689</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>277285</v>
+        <v>276474</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9402441958665889</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9081455286772416</v>
+        <v>0.908211890305797</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.966033365066211</v>
+        <v>0.963206530316997</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>860</v>
@@ -1921,19 +1921,19 @@
         <v>862502</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>830155</v>
+        <v>832801</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>892120</v>
+        <v>892779</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.724788355719553</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6976057039429059</v>
+        <v>0.6998291198969239</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7496770780195486</v>
+        <v>0.7502310865754087</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1137</v>
@@ -1942,19 +1942,19 @@
         <v>1132386</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1098510</v>
+        <v>1101539</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1165945</v>
+        <v>1165995</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7666581734002277</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7437228622510125</v>
+        <v>0.7457739303708736</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7893784328452771</v>
+        <v>0.7894125375789589</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>547321</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>508309</v>
+        <v>504909</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>590798</v>
+        <v>591014</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1753746037930596</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1628742540584507</v>
+        <v>0.1617848577341706</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1893055977765883</v>
+        <v>0.189374759775074</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>676</v>
@@ -2067,19 +2067,19 @@
         <v>691606</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>647835</v>
+        <v>646111</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>739358</v>
+        <v>740697</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2156578375906407</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2020091307609169</v>
+        <v>0.201471607672192</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2305479949333557</v>
+        <v>0.2309653111837646</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1231</v>
@@ -2088,19 +2088,19 @@
         <v>1238927</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1172619</v>
+        <v>1178827</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1298661</v>
+        <v>1301322</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1957902484209936</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1853114185873918</v>
+        <v>0.1862924632211938</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2052301138170353</v>
+        <v>0.2056506704243006</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2573548</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2530071</v>
+        <v>2529855</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2612560</v>
+        <v>2615960</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8246253962069404</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8106944022234114</v>
+        <v>0.8106252402249253</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.837125745941549</v>
+        <v>0.8382151422658293</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2453</v>
@@ -2138,19 +2138,19 @@
         <v>2515354</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2467602</v>
+        <v>2466263</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2559125</v>
+        <v>2560849</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7843421624093593</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7694520050666447</v>
+        <v>0.7690346888162344</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7979908692390832</v>
+        <v>0.7985283923278079</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4959</v>
@@ -2159,19 +2159,19 @@
         <v>5088902</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5029168</v>
+        <v>5026507</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5155210</v>
+        <v>5149002</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8042097515790064</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7947698861829645</v>
+        <v>0.7943493295756994</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8146885814126081</v>
+        <v>0.8137075367788061</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>111881</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91939</v>
+        <v>93031</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>132534</v>
+        <v>130873</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2617501777523175</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2150945849657745</v>
+        <v>0.2176505351150765</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3100698704492936</v>
+        <v>0.3061819078624809</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -2526,19 +2526,19 @@
         <v>86287</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>68374</v>
+        <v>69759</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>102285</v>
+        <v>102447</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2835230135043139</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2246637960590165</v>
+        <v>0.2292159275925174</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3360875157604765</v>
+        <v>0.3366218544897462</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>172</v>
@@ -2547,19 +2547,19 @@
         <v>198168</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>172068</v>
+        <v>173243</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>226195</v>
+        <v>224586</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2708053451007973</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.235138679745186</v>
+        <v>0.2367439925575833</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3091047888721896</v>
+        <v>0.3069071782141843</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>315553</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>294900</v>
+        <v>296561</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>335495</v>
+        <v>334403</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7382498222476824</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6899301295507067</v>
+        <v>0.6938180921375192</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7849054150342257</v>
+        <v>0.7823494648849236</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>199</v>
@@ -2597,19 +2597,19 @@
         <v>218052</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>202054</v>
+        <v>201892</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>235965</v>
+        <v>234580</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.716476986495686</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6639124842395235</v>
+        <v>0.663378145510254</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7753362039409836</v>
+        <v>0.7707840724074827</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>497</v>
@@ -2618,19 +2618,19 @@
         <v>533605</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>505578</v>
+        <v>507187</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>559705</v>
+        <v>558530</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7291946548992028</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6908952111278104</v>
+        <v>0.6930928217858157</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7648613202548141</v>
+        <v>0.7632560074424166</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>105104</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>87372</v>
+        <v>86780</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>125296</v>
+        <v>124487</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2604061955890262</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2164715140066021</v>
+        <v>0.2150056439959342</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3104318754910798</v>
+        <v>0.3084281249331357</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -2743,19 +2743,19 @@
         <v>100667</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>83183</v>
+        <v>82825</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>119118</v>
+        <v>117974</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3058392344412667</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2527213243981201</v>
+        <v>0.2516339968693868</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3618980315022315</v>
+        <v>0.3584205357058426</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>182</v>
@@ -2764,19 +2764,19 @@
         <v>205771</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>181469</v>
+        <v>179283</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>234186</v>
+        <v>233438</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2808141336110083</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2476492136016019</v>
+        <v>0.2446655268788563</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3195919778526539</v>
+        <v>0.3185716496033718</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>298513</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>278321</v>
+        <v>279130</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>316245</v>
+        <v>316837</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7395938044109738</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6895681245089202</v>
+        <v>0.6915718750668645</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.783528485993398</v>
+        <v>0.784994356004066</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>209</v>
@@ -2814,19 +2814,19 @@
         <v>228482</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>210031</v>
+        <v>211175</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>245966</v>
+        <v>246324</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6941607655587333</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6381019684977688</v>
+        <v>0.6415794642941575</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7472786756018799</v>
+        <v>0.7483660031306134</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>476</v>
@@ -2835,19 +2835,19 @@
         <v>526995</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>498580</v>
+        <v>499328</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>551297</v>
+        <v>553483</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7191858663889917</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6804080221473462</v>
+        <v>0.6814283503966282</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7523507863983981</v>
+        <v>0.7553344731211435</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>175477</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>152161</v>
+        <v>153996</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>197511</v>
+        <v>201321</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2891555235503862</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2507343126938996</v>
+        <v>0.253758034349265</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3254629514594559</v>
+        <v>0.3317415401757987</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>85</v>
@@ -2960,19 +2960,19 @@
         <v>92264</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>76826</v>
+        <v>76094</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107931</v>
+        <v>110599</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3604545833798307</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3001416975170281</v>
+        <v>0.2972809262055154</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4216625360344707</v>
+        <v>0.4320833297427929</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>245</v>
@@ -2981,19 +2981,19 @@
         <v>267741</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>241685</v>
+        <v>239952</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>299137</v>
+        <v>298999</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3103070813121125</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2801084364955991</v>
+        <v>0.2781003075089589</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3466939633245801</v>
+        <v>0.3465336656665494</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>431384</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>409350</v>
+        <v>405540</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>454700</v>
+        <v>452865</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7108444764496138</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.674537048540544</v>
+        <v>0.6682584598242013</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7492656873061003</v>
+        <v>0.7462419656507351</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>155</v>
@@ -3031,19 +3031,19 @@
         <v>163702</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>148035</v>
+        <v>145367</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>179140</v>
+        <v>179872</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6395454166201693</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5783374639655292</v>
+        <v>0.5679166702572067</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.699858302482972</v>
+        <v>0.7027190737944843</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>566</v>
@@ -3052,19 +3052,19 @@
         <v>595086</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>563690</v>
+        <v>563828</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>621142</v>
+        <v>622875</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6896929186878874</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.65330603667542</v>
+        <v>0.6534663343334506</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.719891563504401</v>
+        <v>0.7218996924910411</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>324019</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>293687</v>
+        <v>294351</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>356550</v>
+        <v>356567</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2878054103556485</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2608635465004008</v>
+        <v>0.2614532573526874</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.316701110303411</v>
+        <v>0.3167165977686672</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>210</v>
@@ -3177,19 +3177,19 @@
         <v>233588</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>207537</v>
+        <v>205655</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>262503</v>
+        <v>260569</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3146021764412024</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2795153360736211</v>
+        <v>0.2769813763390697</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3535446273456909</v>
+        <v>0.350939853338673</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>511</v>
@@ -3198,19 +3198,19 @@
         <v>557607</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>514729</v>
+        <v>512952</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>599161</v>
+        <v>594720</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2984547359487466</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2755046324792664</v>
+        <v>0.2745538352993703</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3206963069251722</v>
+        <v>0.3183192535931848</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>801806</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>769275</v>
+        <v>769258</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>832138</v>
+        <v>831474</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7121945896443515</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6832988896965891</v>
+        <v>0.6832834022313329</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7391364534995992</v>
+        <v>0.7385467426473127</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>478</v>
@@ -3248,19 +3248,19 @@
         <v>508900</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>479985</v>
+        <v>481919</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>534951</v>
+        <v>536833</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6853978235587975</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6464553726543091</v>
+        <v>0.6490601466613268</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7204846639263789</v>
+        <v>0.7230186236609302</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1232</v>
@@ -3269,19 +3269,19 @@
         <v>1310705</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1269151</v>
+        <v>1273592</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1353583</v>
+        <v>1355360</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7015452640512534</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6793036930748277</v>
+        <v>0.6816807464068153</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7244953675207335</v>
+        <v>0.7254461647006306</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>130383</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>111865</v>
+        <v>111293</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>152649</v>
+        <v>152780</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2583201535050952</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2216308216057726</v>
+        <v>0.2204991494890682</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3024348191430002</v>
+        <v>0.3026941835446283</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>236</v>
@@ -3394,19 +3394,19 @@
         <v>249443</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>223543</v>
+        <v>224276</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>273874</v>
+        <v>276115</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3376268322348841</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3025700851915126</v>
+        <v>0.3035617862499231</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3706940275463413</v>
+        <v>0.3737277246320251</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>358</v>
@@ -3415,19 +3415,19 @@
         <v>379826</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>347509</v>
+        <v>344266</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>414490</v>
+        <v>412051</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.305437660359141</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2794496997393435</v>
+        <v>0.2768414115859835</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3333124084105386</v>
+        <v>0.3313509484117621</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>374351</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>352085</v>
+        <v>351954</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>392869</v>
+        <v>393441</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7416798464949048</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6975651808569998</v>
+        <v>0.6973058164553717</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7783691783942274</v>
+        <v>0.7795008505109319</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>446</v>
@@ -3465,19 +3465,19 @@
         <v>489371</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>464940</v>
+        <v>462699</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>515271</v>
+        <v>514538</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6623731677651159</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6293059724536587</v>
+        <v>0.626272275367975</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6974299148084875</v>
+        <v>0.696438213750077</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>805</v>
@@ -3486,19 +3486,19 @@
         <v>863722</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>829058</v>
+        <v>831497</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>896039</v>
+        <v>899282</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6945623396408589</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6666875915894614</v>
+        <v>0.668649051588238</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.720550300260657</v>
+        <v>0.7231585884140165</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>15160</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8603</v>
+        <v>8733</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23651</v>
+        <v>24247</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05963947833582545</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03384229218618857</v>
+        <v>0.03435461460133383</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09304478376142124</v>
+        <v>0.09538949477975629</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>392</v>
@@ -3611,19 +3611,19 @@
         <v>421096</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>388353</v>
+        <v>388027</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>456029</v>
+        <v>455089</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3920089434672068</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3615277286147524</v>
+        <v>0.3612249459284521</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4245295677040037</v>
+        <v>0.4236538483012761</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>407</v>
@@ -3632,19 +3632,19 @@
         <v>436256</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>400647</v>
+        <v>399769</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>471172</v>
+        <v>469807</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3284084699741703</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3016023144701993</v>
+        <v>0.3009412947938843</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3546929108001595</v>
+        <v>0.3536650381290587</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>239034</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>230543</v>
+        <v>229947</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>245591</v>
+        <v>245461</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9403605216641745</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.906955216238579</v>
+        <v>0.9046105052202439</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9661577078138115</v>
+        <v>0.9656453853986662</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>617</v>
@@ -3682,19 +3682,19 @@
         <v>653103</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>618170</v>
+        <v>619110</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>685846</v>
+        <v>686172</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6079910565327932</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.575470432295996</v>
+        <v>0.5763461516987241</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6384722713852474</v>
+        <v>0.6387750540715479</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>854</v>
@@ -3703,19 +3703,19 @@
         <v>892138</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>857222</v>
+        <v>858587</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>927747</v>
+        <v>928625</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6715915300258296</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6453070891998405</v>
+        <v>0.6463349618709414</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6983976855298007</v>
+        <v>0.6990587052061158</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>862024</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>811995</v>
+        <v>806952</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>913939</v>
+        <v>912744</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2594374976972621</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2443807157303561</v>
+        <v>0.2428630133023988</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2750620146390085</v>
+        <v>0.274702292939299</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1087</v>
@@ -3828,19 +3828,19 @@
         <v>1183345</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1124951</v>
+        <v>1131917</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1241043</v>
+        <v>1246276</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3435009530363701</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3265504073212424</v>
+        <v>0.3285722329773225</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3602492891574341</v>
+        <v>0.3617685104633969</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1875</v>
@@ -3849,19 +3849,19 @@
         <v>2045369</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1967268</v>
+        <v>1968302</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2118061</v>
+        <v>2127418</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3022287345921787</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2906883290818226</v>
+        <v>0.2908411254487122</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3129698004374224</v>
+        <v>0.3143525080463766</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2460641</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2408726</v>
+        <v>2409921</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2510670</v>
+        <v>2515713</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7405625023027379</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7249379853609914</v>
+        <v>0.7252977070607011</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7556192842696435</v>
+        <v>0.7571369866976013</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2104</v>
@@ -3899,19 +3899,19 @@
         <v>2261610</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2203912</v>
+        <v>2198679</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2320004</v>
+        <v>2313038</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6564990469636299</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6397507108425656</v>
+        <v>0.638231489536603</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6734495926787571</v>
+        <v>0.6714277670226773</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4430</v>
@@ -3920,19 +3920,19 @@
         <v>4722251</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4649559</v>
+        <v>4640202</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4800352</v>
+        <v>4799318</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6977712654078212</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6870301995625776</v>
+        <v>0.6856474919536234</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7093116709181775</v>
+        <v>0.7091588745512878</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>129626</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>110593</v>
+        <v>111112</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>149855</v>
+        <v>150507</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3060809562783304</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2611396065234004</v>
+        <v>0.2623654145751788</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3538487083030393</v>
+        <v>0.3553877772695517</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>95</v>
@@ -4287,19 +4287,19 @@
         <v>100287</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>83999</v>
+        <v>84688</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>118519</v>
+        <v>118201</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2915416707864227</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2441901230201978</v>
+        <v>0.2461936029998822</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.344541584711101</v>
+        <v>0.3436166542304718</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>211</v>
@@ -4308,19 +4308,19 @@
         <v>229913</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>204446</v>
+        <v>203453</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>255488</v>
+        <v>255643</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2995644357733058</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.26638202270738</v>
+        <v>0.2650881781864325</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3328876786155666</v>
+        <v>0.3330897632488349</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>293875</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>273646</v>
+        <v>272994</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>312908</v>
+        <v>312389</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6939190437216697</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6461512916969604</v>
+        <v>0.6446122227304483</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7388603934765995</v>
+        <v>0.7376345854248213</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>234</v>
@@ -4358,19 +4358,19 @@
         <v>243703</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>225471</v>
+        <v>225789</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>259991</v>
+        <v>259302</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7084583292135773</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.655458415288899</v>
+        <v>0.6563833457695282</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7558098769798023</v>
+        <v>0.7538063970001179</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>509</v>
@@ -4379,19 +4379,19 @@
         <v>537578</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>512003</v>
+        <v>511848</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>563045</v>
+        <v>564038</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7004355642266942</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6671123213844334</v>
+        <v>0.6669102367511652</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7336179772926201</v>
+        <v>0.7349118218135676</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>103267</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>86002</v>
+        <v>88310</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>121782</v>
+        <v>122266</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2800773913463958</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2332517747558669</v>
+        <v>0.239511733305799</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3302951376547573</v>
+        <v>0.3316052656399117</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>103</v>
@@ -4504,19 +4504,19 @@
         <v>112409</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>94828</v>
+        <v>94469</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>132308</v>
+        <v>131976</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3071239510790812</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2590897043283168</v>
+        <v>0.2581094667331404</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3614924211205874</v>
+        <v>0.3605860906520601</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>202</v>
@@ -4525,19 +4525,19 @@
         <v>215675</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>191238</v>
+        <v>192255</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>243427</v>
+        <v>242752</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2935509125318406</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2602892219961471</v>
+        <v>0.2616741718054925</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.331322627136934</v>
+        <v>0.3304048253353053</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>265441</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>246926</v>
+        <v>246442</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>282706</v>
+        <v>280398</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7199226086536041</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6697048623452425</v>
+        <v>0.6683947343600888</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7667482252441331</v>
+        <v>0.7604882666942012</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>243</v>
@@ -4575,19 +4575,19 @@
         <v>253595</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>233696</v>
+        <v>234028</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>271176</v>
+        <v>271535</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6928760489209188</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6385075788794127</v>
+        <v>0.6394139093479401</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7409102956716833</v>
+        <v>0.7418905332668596</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>491</v>
@@ -4596,19 +4596,19 @@
         <v>519037</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>491285</v>
+        <v>491960</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>543474</v>
+        <v>542457</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7064490874681594</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6686773728630659</v>
+        <v>0.6695951746646944</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7397107780038529</v>
+        <v>0.7383258281945074</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>164537</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>143225</v>
+        <v>141627</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>185411</v>
+        <v>185911</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3203182443347727</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2788283402507223</v>
+        <v>0.2757168639395073</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3609556803350125</v>
+        <v>0.3619290439668859</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -4721,19 +4721,19 @@
         <v>59710</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46749</v>
+        <v>48135</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73828</v>
+        <v>74133</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3638068307888074</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2848371198259243</v>
+        <v>0.2932826952681865</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4498255471272061</v>
+        <v>0.4516808096820336</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>206</v>
@@ -4742,19 +4742,19 @@
         <v>224247</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>199562</v>
+        <v>196785</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>249067</v>
+        <v>246262</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3308488647023263</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2944291286525581</v>
+        <v>0.2903318103215557</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3674672974320086</v>
+        <v>0.3633285906924282</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>349131</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>328257</v>
+        <v>327757</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>370443</v>
+        <v>372041</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6796817556652273</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6390443196649875</v>
+        <v>0.6380709560331143</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7211716597492777</v>
+        <v>0.7242831360604928</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>98</v>
@@ -4792,19 +4792,19 @@
         <v>104416</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>90298</v>
+        <v>89993</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>117377</v>
+        <v>115991</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6361931692111926</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5501744528727938</v>
+        <v>0.5483191903179657</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7151628801740757</v>
+        <v>0.7067173047318129</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>438</v>
@@ -4813,19 +4813,19 @@
         <v>453547</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>428727</v>
+        <v>431532</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>478232</v>
+        <v>481009</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6691511352976737</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6325327025679909</v>
+        <v>0.6366714093075719</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7055708713474418</v>
+        <v>0.7096681896784444</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>327850</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>298749</v>
+        <v>298876</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>357593</v>
+        <v>365453</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2880757126480347</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2625050320500668</v>
+        <v>0.2626170627794922</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3142105880716695</v>
+        <v>0.3211170013395484</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>244</v>
@@ -4938,19 +4938,19 @@
         <v>258482</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>232637</v>
+        <v>232080</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>286583</v>
+        <v>286986</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3173599451986042</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2856277380119857</v>
+        <v>0.2849437378641098</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.351862019104104</v>
+        <v>0.3523569609428533</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>561</v>
@@ -4959,19 +4959,19 @@
         <v>586331</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>547518</v>
+        <v>547033</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>629478</v>
+        <v>626255</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.300291205531476</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2804126719518025</v>
+        <v>0.2801642010830445</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3223888580327482</v>
+        <v>0.3207380023892915</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>810218</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>780475</v>
+        <v>772615</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>839319</v>
+        <v>839192</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7119242873519653</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6857894119283304</v>
+        <v>0.6788829986604515</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7374949679499332</v>
+        <v>0.7373829372205077</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>543</v>
@@ -5009,19 +5009,19 @@
         <v>555993</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>527892</v>
+        <v>527489</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>581838</v>
+        <v>582395</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6826400548013958</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6481379808958959</v>
+        <v>0.6476430390571467</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7143722619880141</v>
+        <v>0.7150562621358898</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1317</v>
@@ -5030,19 +5030,19 @@
         <v>1366212</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1323065</v>
+        <v>1326288</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1405025</v>
+        <v>1405510</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.699708794468524</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6776111419672518</v>
+        <v>0.6792619976107085</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7195873280481976</v>
+        <v>0.7198357989169555</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>174103</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>153103</v>
+        <v>153793</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>196024</v>
+        <v>196282</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2860001601634288</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2515027678811184</v>
+        <v>0.2526363933239657</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3220098732499488</v>
+        <v>0.3224335325530231</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>289</v>
@@ -5155,19 +5155,19 @@
         <v>308515</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>281920</v>
+        <v>281207</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>336431</v>
+        <v>337522</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4212683698200034</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3849547387743717</v>
+        <v>0.3839800075848864</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4593880170616184</v>
+        <v>0.460877081482156</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>462</v>
@@ -5176,19 +5176,19 @@
         <v>482618</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>447656</v>
+        <v>448585</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>518796</v>
+        <v>517327</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3598674057176669</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3337975648486706</v>
+        <v>0.3344902595708005</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3868441379812896</v>
+        <v>0.3857487094544491</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>434649</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>412728</v>
+        <v>412470</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>455649</v>
+        <v>454959</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7139998398365712</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6779901267500512</v>
+        <v>0.6775664674469769</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7484972321188819</v>
+        <v>0.7473636066760343</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>405</v>
@@ -5226,19 +5226,19 @@
         <v>423832</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>395916</v>
+        <v>394825</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>450427</v>
+        <v>451140</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5787316301799966</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5406119829383816</v>
+        <v>0.5391229185178442</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6150452612256286</v>
+        <v>0.6160199924151137</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>818</v>
@@ -5247,19 +5247,19 @@
         <v>858481</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>822303</v>
+        <v>823772</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>893443</v>
+        <v>892514</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6401325942823332</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6131558620187104</v>
+        <v>0.6142512905455507</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6662024351513294</v>
+        <v>0.6655097404291995</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>27624</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18849</v>
+        <v>18357</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39545</v>
+        <v>38457</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09929626659738339</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06775425587244606</v>
+        <v>0.06598457781963099</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1421485046829834</v>
+        <v>0.1382376877831369</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>335</v>
@@ -5372,19 +5372,19 @@
         <v>373999</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>341538</v>
+        <v>340197</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>405407</v>
+        <v>403231</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3513950307836219</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3208963378766978</v>
+        <v>0.3196363940283501</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3809051800146678</v>
+        <v>0.3788603885091589</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>361</v>
@@ -5393,19 +5393,19 @@
         <v>401622</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>368111</v>
+        <v>368178</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>437842</v>
+        <v>435928</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2991553863055362</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2741940793579382</v>
+        <v>0.2742436892413193</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3261343044440538</v>
+        <v>0.3247083302576331</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>250572</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>238651</v>
+        <v>239739</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>259347</v>
+        <v>259839</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9007037334026167</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8578514953170167</v>
+        <v>0.8617623122168634</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.932245744127554</v>
+        <v>0.9340154221803691</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>642</v>
@@ -5443,19 +5443,19 @@
         <v>690326</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>658918</v>
+        <v>661094</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>722787</v>
+        <v>724128</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6486049692163781</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6190948199853321</v>
+        <v>0.6211396114908411</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6791036621233022</v>
+        <v>0.6803636059716496</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>880</v>
@@ -5464,19 +5464,19 @@
         <v>940899</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>904679</v>
+        <v>906593</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>974410</v>
+        <v>974343</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7008446136944638</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6738656955559459</v>
+        <v>0.6752916697423669</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7258059206420617</v>
+        <v>0.7257563107586801</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>927006</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>872372</v>
+        <v>874834</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>977627</v>
+        <v>983353</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2783056630292667</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2619034398306055</v>
+        <v>0.2626424824051012</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2935031396001174</v>
+        <v>0.2952221543484442</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1119</v>
@@ -5589,19 +5589,19 @@
         <v>1213401</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1156921</v>
+        <v>1154063</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1273277</v>
+        <v>1276360</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3481515322635878</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3319461062941272</v>
+        <v>0.3311260010888118</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3653313304598282</v>
+        <v>0.3662159018767435</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2003</v>
@@ -5610,19 +5610,19 @@
         <v>2140407</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2060441</v>
+        <v>2061025</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2216325</v>
+        <v>2224988</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3140195447448033</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3022877241628449</v>
+        <v>0.3023733879170237</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.325157410671351</v>
+        <v>0.3264284353430945</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2403886</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2353265</v>
+        <v>2347539</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2458520</v>
+        <v>2456058</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7216943369707333</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7064968603998827</v>
+        <v>0.7047778456515559</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7380965601693945</v>
+        <v>0.7373575175948986</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2165</v>
@@ -5660,19 +5660,19 @@
         <v>2271866</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2211990</v>
+        <v>2208907</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2328346</v>
+        <v>2331204</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6518484677364123</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6346686695401718</v>
+        <v>0.6337840981232558</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6680538937058728</v>
+        <v>0.6688739989111878</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4453</v>
@@ -5681,19 +5681,19 @@
         <v>4675752</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4599834</v>
+        <v>4591171</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4755718</v>
+        <v>4755134</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6859804552551967</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.674842589328649</v>
+        <v>0.6735715646569054</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6977122758371551</v>
+        <v>0.6976266120829762</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>196335</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>174265</v>
+        <v>174000</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>220521</v>
+        <v>220652</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3565721382640801</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3164892720499651</v>
+        <v>0.3160086263316397</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4004971022220351</v>
+        <v>0.4007351414857367</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>203</v>
@@ -6048,19 +6048,19 @@
         <v>138144</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>121505</v>
+        <v>121316</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>154898</v>
+        <v>156017</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2828437018929383</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2487771117704821</v>
+        <v>0.2483886350498783</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3171471943660218</v>
+        <v>0.3194386906138715</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>413</v>
@@ -6069,19 +6069,19 @@
         <v>334479</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>307174</v>
+        <v>306877</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>362332</v>
+        <v>362003</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3219150058361075</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2956353981747288</v>
+        <v>0.2953501822181876</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3487218872676806</v>
+        <v>0.3484048311594656</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>354283</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>330097</v>
+        <v>329966</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>376353</v>
+        <v>376618</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6434278617359198</v>
+        <v>0.6434278617359199</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5995028977779648</v>
+        <v>0.5992648585142635</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6835107279500349</v>
+        <v>0.6839913736683603</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>483</v>
@@ -6119,19 +6119,19 @@
         <v>350267</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>333513</v>
+        <v>332394</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>366906</v>
+        <v>367095</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7171562981070617</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6828528056339782</v>
+        <v>0.6805613093861285</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7512228882295179</v>
+        <v>0.7516113649501216</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>827</v>
@@ -6140,19 +6140,19 @@
         <v>704550</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>676697</v>
+        <v>677026</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>731855</v>
+        <v>732152</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6780849941638926</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6512781127323187</v>
+        <v>0.6515951688405343</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7043646018252708</v>
+        <v>0.7046498177818115</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>189232</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>166650</v>
+        <v>169440</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>211357</v>
+        <v>212218</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.391613658297458</v>
+        <v>0.3916136582974579</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3448791459912066</v>
+        <v>0.3506543861950997</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4373996522662151</v>
+        <v>0.4391813994873667</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>220</v>
@@ -6265,19 +6265,19 @@
         <v>159028</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>143009</v>
+        <v>142588</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>177710</v>
+        <v>177989</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3765952725001242</v>
+        <v>0.3765952725001243</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3386610698679396</v>
+        <v>0.3376629516984564</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4208358409211643</v>
+        <v>0.4214973031138713</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>424</v>
@@ -6286,19 +6286,19 @@
         <v>348260</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>320419</v>
+        <v>319537</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>375708</v>
+        <v>376271</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3846097849513074</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3538628062624053</v>
+        <v>0.352888206338931</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4149221607950113</v>
+        <v>0.4155441420612354</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>293980</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>271855</v>
+        <v>270994</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>316562</v>
+        <v>313772</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6083863417025421</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5626003477337849</v>
+        <v>0.5608186005126327</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6551208540087933</v>
+        <v>0.6493456138049001</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>369</v>
@@ -6336,19 +6336,19 @@
         <v>263250</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>244568</v>
+        <v>244289</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>279269</v>
+        <v>279690</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6234047274998759</v>
+        <v>0.6234047274998757</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5791641590788356</v>
+        <v>0.578502696886128</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6613389301320605</v>
+        <v>0.6623370483015436</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>646</v>
@@ -6357,19 +6357,19 @@
         <v>557230</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>529782</v>
+        <v>529219</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>585071</v>
+        <v>585953</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6153902150486926</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5850778392049886</v>
+        <v>0.5844558579387646</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6461371937375947</v>
+        <v>0.647111793661069</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>181742</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>160141</v>
+        <v>161540</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>203257</v>
+        <v>202851</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3853625883888208</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3395614642655153</v>
+        <v>0.3425270781021844</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4309836648143731</v>
+        <v>0.4301227200259566</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>120</v>
@@ -6482,19 +6482,19 @@
         <v>77493</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66771</v>
+        <v>66367</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88164</v>
+        <v>87904</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4133012514296952</v>
+        <v>0.4133012514296953</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.356118081180297</v>
+        <v>0.3539638300838236</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4702172294096797</v>
+        <v>0.4688285657403732</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>323</v>
@@ -6503,19 +6503,19 @@
         <v>259234</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>233058</v>
+        <v>236757</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>282982</v>
+        <v>286986</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3933103230812634</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3535960478856254</v>
+        <v>0.3592080915703662</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4293406269926668</v>
+        <v>0.4354150806626061</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>289870</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>268355</v>
+        <v>268761</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>311471</v>
+        <v>310072</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6146374116111794</v>
+        <v>0.6146374116111791</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5690163351856269</v>
+        <v>0.5698772799740435</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6604385357344845</v>
+        <v>0.6574729218978157</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>169</v>
@@ -6553,19 +6553,19 @@
         <v>110004</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>99333</v>
+        <v>99593</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>120726</v>
+        <v>121130</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5866987485703047</v>
+        <v>0.5866987485703048</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5297827705903204</v>
+        <v>0.5311714342596267</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.643881918819703</v>
+        <v>0.6460361699161763</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>454</v>
@@ -6574,19 +6574,19 @@
         <v>399875</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>376127</v>
+        <v>372123</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>426051</v>
+        <v>422352</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6066896769187368</v>
+        <v>0.6066896769187367</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5706593730073332</v>
+        <v>0.564584919337394</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.646403952114375</v>
+        <v>0.6407919084296337</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>410101</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>374425</v>
+        <v>376772</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>444832</v>
+        <v>444903</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3623304899934006</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3308097246485198</v>
+        <v>0.3328840621071545</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3930157193182379</v>
+        <v>0.3930780420174778</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>404</v>
@@ -6699,19 +6699,19 @@
         <v>282508</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>258552</v>
+        <v>260496</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>307233</v>
+        <v>306771</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3286345037570625</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.300766672306192</v>
+        <v>0.3030276474555953</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3573962014108069</v>
+        <v>0.3568585097771541</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>845</v>
@@ -6720,19 +6720,19 @@
         <v>692610</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>651589</v>
+        <v>654212</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>736464</v>
+        <v>735268</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3477853093050102</v>
+        <v>0.3477853093050103</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3271873932138096</v>
+        <v>0.3285044328120862</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3698062832572694</v>
+        <v>0.3692056232212884</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>721742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>687011</v>
+        <v>686940</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>757418</v>
+        <v>755071</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6376695100065994</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.606984280681763</v>
+        <v>0.6069219579825221</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6691902753514802</v>
+        <v>0.6671159378928455</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>823</v>
@@ -6770,19 +6770,19 @@
         <v>577135</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>552410</v>
+        <v>552872</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>601091</v>
+        <v>599147</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6713654962429375</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6426037985891931</v>
+        <v>0.6431414902228457</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6992333276938082</v>
+        <v>0.6969723525444046</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1500</v>
@@ -6791,19 +6791,19 @@
         <v>1298876</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1255022</v>
+        <v>1256218</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1339897</v>
+        <v>1337274</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6522146906949897</v>
+        <v>0.6522146906949898</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6301937167427307</v>
+        <v>0.6307943767787116</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6728126067861905</v>
+        <v>0.6714955671879139</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>171253</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>148089</v>
+        <v>148813</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>195982</v>
+        <v>195196</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3015204825726784</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2607361806225405</v>
+        <v>0.2620108948772769</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3450598876499891</v>
+        <v>0.3436773272000022</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>597</v>
@@ -6916,19 +6916,19 @@
         <v>378461</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>352363</v>
+        <v>352442</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>401694</v>
+        <v>399583</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4559073671219966</v>
+        <v>0.4559073671219967</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4244687907581329</v>
+        <v>0.4245637071313854</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4838945672977794</v>
+        <v>0.4813520593347121</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>782</v>
@@ -6937,19 +6937,19 @@
         <v>549714</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>518559</v>
+        <v>516560</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>583943</v>
+        <v>584799</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3931888911101717</v>
+        <v>0.3931888911101716</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3709048377480534</v>
+        <v>0.3694754135894287</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4176720207364361</v>
+        <v>0.4182837249867687</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>396711</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>371982</v>
+        <v>372768</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>419875</v>
+        <v>419151</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6984795174273217</v>
+        <v>0.6984795174273215</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6549401123500113</v>
+        <v>0.6563226727999978</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7392638193774597</v>
+        <v>0.7379891051227231</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>692</v>
@@ -6987,19 +6987,19 @@
         <v>451666</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>428433</v>
+        <v>430544</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>477764</v>
+        <v>477685</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5440926328780035</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5161054327022205</v>
+        <v>0.5186479406652879</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.575531209241867</v>
+        <v>0.5754362928686148</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1054</v>
@@ -7008,19 +7008,19 @@
         <v>848377</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>814148</v>
+        <v>813292</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>879532</v>
+        <v>881531</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6068111088898285</v>
+        <v>0.6068111088898284</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5823279792635639</v>
+        <v>0.5817162750132312</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6290951622519466</v>
+        <v>0.630524586410571</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>50677</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33266</v>
+        <v>34299</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>69345</v>
+        <v>72216</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2136219128095435</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1402287752209362</v>
+        <v>0.1445835049532252</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2923127217751919</v>
+        <v>0.3044171008982108</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>504</v>
@@ -7133,19 +7133,19 @@
         <v>353892</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>325411</v>
+        <v>321917</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>381543</v>
+        <v>380948</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4196712207027071</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.385896510178728</v>
+        <v>0.3817537217724862</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4524627957434835</v>
+        <v>0.4517573546338505</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>532</v>
@@ -7154,19 +7154,19 @@
         <v>404569</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>373418</v>
+        <v>371157</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>440193</v>
+        <v>435297</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.374431789673378</v>
+        <v>0.3744317896733779</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3456018516992062</v>
+        <v>0.3435089763990407</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.40740207255389</v>
+        <v>0.402871274083919</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>186551</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>167883</v>
+        <v>165012</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>203962</v>
+        <v>202929</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7863780871904565</v>
+        <v>0.7863780871904564</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7076872782248083</v>
+        <v>0.6955828991017892</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8597712247790636</v>
+        <v>0.8554164950467749</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>653</v>
@@ -7204,19 +7204,19 @@
         <v>489367</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>461716</v>
+        <v>462311</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>517848</v>
+        <v>521342</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5803287792972928</v>
+        <v>0.580328779297293</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5475372042565165</v>
+        <v>0.5482426453661494</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6141034898212718</v>
+        <v>0.6182462782275138</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>737</v>
@@ -7225,19 +7225,19 @@
         <v>675918</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>640294</v>
+        <v>645190</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>707069</v>
+        <v>709330</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6255682103266222</v>
+        <v>0.6255682103266221</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.59259792744611</v>
+        <v>0.5971287259160809</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6543981483007939</v>
+        <v>0.6564910236009592</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>1199340</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1141278</v>
+        <v>1141113</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1269838</v>
+        <v>1253173</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3483945504746733</v>
+        <v>0.3483945504746732</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3315281230250745</v>
+        <v>0.3314804057143422</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3688734032399754</v>
+        <v>0.3640323218212225</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2048</v>
@@ -7350,19 +7350,19 @@
         <v>1389526</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1338537</v>
+        <v>1339827</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1442857</v>
+        <v>1441102</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3826613288532712</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3686193762829737</v>
+        <v>0.3689748009184486</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3973482306632877</v>
+        <v>0.3968649680625315</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3319</v>
@@ -7371,19 +7371,19 @@
         <v>2588866</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2505550</v>
+        <v>2500795</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2669037</v>
+        <v>2672127</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3659850921695523</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.354206872797623</v>
+        <v>0.3535346244694473</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3773187738787598</v>
+        <v>0.3777556830330346</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2243136</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2172638</v>
+        <v>2189303</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2301198</v>
+        <v>2301363</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6516054495253268</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6311265967600246</v>
+        <v>0.6359676781787775</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6684718769749255</v>
+        <v>0.6685195942856579</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3189</v>
@@ -7421,19 +7421,19 @@
         <v>2241690</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2188359</v>
+        <v>2190114</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2292679</v>
+        <v>2291389</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6173386711467289</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6026517693367123</v>
+        <v>0.6031350319374684</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6313806237170263</v>
+        <v>0.6310251990815512</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5218</v>
@@ -7442,19 +7442,19 @@
         <v>4484826</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4404655</v>
+        <v>4401565</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4568142</v>
+        <v>4572897</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6340149078304478</v>
+        <v>0.6340149078304476</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6226812261212401</v>
+        <v>0.6222443169669652</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6457931272023769</v>
+        <v>0.6464653755305528</v>
       </c>
     </row>
     <row r="24">
